--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed3/result_data_RandomForest.xlsx
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.291899999999996</v>
+        <v>-8.283199999999995</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.1802</v>
+        <v>-7.112599999999998</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.684199999999999</v>
+        <v>-8.796599999999998</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.837399999999998</v>
+        <v>-7.830499999999996</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.998799999999999</v>
+        <v>-8.986399999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.892999999999995</v>
+        <v>-6.865399999999995</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.7138</v>
+        <v>-5.687799999999998</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.602800000000005</v>
+        <v>-7.580200000000004</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
